--- a/schedule/schedule_N-03_C-updated_I-020.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-020.xlsx
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM36"/>
+  <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:66">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -924,8 +924,11 @@
       <c r="BM1" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:65">
+      <c r="BN1" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:66">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1027,56 +1030,56 @@
       <c r="AW3" t="s">
         <v>100</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>103</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>43</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>49</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>52</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>53</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>55</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>56</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>58</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>60</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>64</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>67</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>68</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>71</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>72</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:66">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1170,50 +1173,50 @@
       <c r="AY4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>43</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>49</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>52</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>53</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>55</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>56</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>58</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>60</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>64</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>67</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>68</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>71</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>72</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BN4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:66">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1310,47 +1313,47 @@
       <c r="AZ5" t="s">
         <v>43</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>49</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>52</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>55</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>56</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>58</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>60</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>64</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>67</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>68</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>71</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>72</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:66">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:66">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:66">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1418,14 +1421,14 @@
       <c r="AJ8" t="s">
         <v>71</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>72</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:66">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1471,14 +1474,14 @@
       <c r="AJ9" t="s">
         <v>71</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>72</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:66">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:66">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1538,14 +1541,14 @@
       <c r="AJ11" t="s">
         <v>71</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>72</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:66">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:66">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:66">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:66">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:66">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:65">
+    <row r="17" spans="1:66">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1847,56 +1850,56 @@
       <c r="AW17" t="s">
         <v>100</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>103</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>39</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>43</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>49</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>52</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>53</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>55</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>56</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>58</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>60</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>64</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>67</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>68</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>71</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BM17" t="s">
         <v>72</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BN17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:65">
+    <row r="18" spans="1:66">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:65">
+    <row r="19" spans="1:66">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:65">
+    <row r="20" spans="1:66">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:65">
+    <row r="21" spans="1:66">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:65">
+    <row r="22" spans="1:66">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:65">
+    <row r="23" spans="1:66">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:65">
+    <row r="24" spans="1:66">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2293,17 +2296,17 @@
       <c r="AU24" t="s">
         <v>96</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>98</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>100</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:66">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:66">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2492,53 +2495,53 @@
       <c r="AU26" t="s">
         <v>96</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>98</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>100</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>103</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>106</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>107</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>108</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>109</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>110</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>111</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>112</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>113</v>
       </c>
-      <c r="BG26" t="s">
+      <c r="BH26" t="s">
         <v>114</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>115</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>116</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BK26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:66">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2590,11 +2593,11 @@
       <c r="AK27" t="s">
         <v>72</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:66">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:66">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:65">
+    <row r="30" spans="1:66">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:65">
+    <row r="31" spans="1:66">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:65">
+    <row r="32" spans="1:66">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2777,11 +2780,11 @@
       <c r="AK32" t="s">
         <v>72</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AM32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:39">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2824,17 +2827,17 @@
       <c r="AI33" t="s">
         <v>68</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AK33" t="s">
         <v>71</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AL33" t="s">
         <v>72</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AM33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:39">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:39">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2891,17 +2894,17 @@
       <c r="AI35" t="s">
         <v>68</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
         <v>71</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AL35" t="s">
         <v>72</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2947,13 +2950,13 @@
       <c r="AI36" t="s">
         <v>68</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AK36" t="s">
         <v>71</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AL36" t="s">
         <v>72</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AM36" t="s">
         <v>75</v>
       </c>
     </row>
